--- a/analisis/resultados/argentina/tabla_comparacion_autores.xlsx
+++ b/analisis/resultados/argentina/tabla_comparacion_autores.xlsx
@@ -425,7 +425,7 @@
         <v>2892</v>
       </c>
       <c r="G2">
-        <v>1614.181567687775</v>
+        <v>1609.696633471878</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
         <v>4364</v>
       </c>
       <c r="G3">
-        <v>2077.639145860988</v>
+        <v>2038.380115936737</v>
       </c>
       <c r="I3">
         <v>1732</v>

--- a/analisis/resultados/argentina/tabla_comparacion_autores.xlsx
+++ b/analisis/resultados/argentina/tabla_comparacion_autores.xlsx
@@ -425,7 +425,7 @@
         <v>2892</v>
       </c>
       <c r="G2">
-        <v>1609.696633471878</v>
+        <v>1643.709068041747</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
         <v>4364</v>
       </c>
       <c r="G3">
-        <v>2038.380115936737</v>
+        <v>2188.624045675153</v>
       </c>
       <c r="I3">
         <v>1732</v>
@@ -482,7 +482,7 @@
         <v>7450</v>
       </c>
       <c r="G4">
-        <v>4433.171726884147</v>
+        <v>3821.039774970653</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         <v>6107</v>
       </c>
       <c r="G5">
-        <v>3316.748111702572</v>
+        <v>2603.353473627419</v>
       </c>
     </row>
     <row r="6">
@@ -536,7 +536,7 @@
         <v>6277</v>
       </c>
       <c r="G6">
-        <v>3440.098260076793</v>
+        <v>1842.718555186179</v>
       </c>
     </row>
     <row r="7">
@@ -563,7 +563,7 @@
         <v>7368</v>
       </c>
       <c r="G7">
-        <v>3044.108096525371</v>
+        <v>3156.650941581288</v>
       </c>
       <c r="I7">
         <v>5228</v>
@@ -593,7 +593,7 @@
         <v>8924</v>
       </c>
       <c r="G8">
-        <v>4323.037906831347</v>
+        <v>5628.683186472136</v>
       </c>
     </row>
     <row r="9">
@@ -620,7 +620,7 @@
         <v>11999</v>
       </c>
       <c r="G9">
-        <v>7118.760904441265</v>
+        <v>8629.47258591945</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         <v>8934</v>
       </c>
       <c r="G10">
-        <v>10357.79276158131</v>
+        <v>13445.95221104066</v>
       </c>
       <c r="I10">
         <v>12341</v>
@@ -668,7 +668,7 @@
         <v>14264.5</v>
       </c>
       <c r="G11">
-        <v>11945.32220106251</v>
+        <v>14652.00799689555</v>
       </c>
     </row>
     <row r="12">
@@ -689,7 +689,7 @@
         <v>19918</v>
       </c>
       <c r="G12">
-        <v>28841.23591783809</v>
+        <v>31469.34071054289</v>
       </c>
     </row>
     <row r="13">
@@ -710,7 +710,7 @@
         <v>10941.4</v>
       </c>
       <c r="G13">
-        <v>15603.75819405868</v>
+        <v>18235.43065246696</v>
       </c>
     </row>
     <row r="14">
@@ -731,7 +731,7 @@
         <v>14008.2</v>
       </c>
       <c r="G14">
-        <v>21085.2297379748</v>
+        <v>23451.88215127289</v>
       </c>
       <c r="H14">
         <v>14830</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>27993.43024244759</v>
+        <v>29955.02158337412</v>
       </c>
       <c r="H15">
         <v>16497</v>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="G16">
-        <v>30146.1357396349</v>
+        <v>31861.42806490845</v>
       </c>
       <c r="H16">
         <v>15769</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="G17">
-        <v>24751.17534990787</v>
+        <v>24550.79320034093</v>
       </c>
       <c r="H17">
         <v>15932</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="G18">
-        <v>22461.11208471438</v>
+        <v>24102.44414139766</v>
       </c>
       <c r="H18">
         <v>14830</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="G19">
-        <v>8216.331359362774</v>
+        <v>8054.112808516474</v>
       </c>
       <c r="H19">
         <v>5883</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>3230.964899539834</v>
+        <v>1788.874375482555</v>
       </c>
     </row>
     <row r="21">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="G21">
-        <v>5754.990786191625</v>
+        <v>10396.02590203876</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="G22">
-        <v>5489.060682059311</v>
+        <v>11458.1792950775</v>
       </c>
     </row>
     <row r="23">
